--- a/media/Employees/Employee_Database.xlsx
+++ b/media/Employees/Employee_Database.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R142"/>
+  <dimension ref="A1:R159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,7 +440,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -593,11 +593,7 @@
       <c r="Q2" s="2" t="n">
         <v>44193</v>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr"/>
@@ -663,11 +659,7 @@
       <c r="Q3" s="2" t="n">
         <v>44386</v>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr"/>
@@ -681,11 +673,7 @@
           <t>P170</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -703,7 +691,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -734,7 +722,9 @@
       <c r="P4" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="Q4" t="inlineStr"/>
+      <c r="Q4" s="2" t="n">
+        <v>44531</v>
+      </c>
       <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -751,7 +741,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>O50</t>
+          <t>O233</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -776,12 +766,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MAGMA</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>AUTO</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -869,11 +859,7 @@
       <c r="Q6" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -941,11 +927,7 @@
         <v>44287</v>
       </c>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -1011,11 +993,7 @@
       <c r="Q8" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -1081,11 +1059,7 @@
       <c r="Q9" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -1099,11 +1073,7 @@
           <t>T007</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>O239</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -1121,7 +1091,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1152,12 +1122,10 @@
       <c r="P10" s="2" t="n">
         <v>44260</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q10" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -1171,11 +1139,7 @@
           <t>P019</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -1193,17 +1157,17 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MAGMA</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>AUTO</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1224,7 +1188,9 @@
       <c r="P11" s="2" t="n">
         <v>43410</v>
       </c>
-      <c r="Q11" t="inlineStr"/>
+      <c r="Q11" s="2" t="n">
+        <v>44501</v>
+      </c>
       <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -1291,11 +1257,7 @@
       <c r="Q12" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -1361,11 +1323,7 @@
       <c r="Q13" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -1379,11 +1337,7 @@
           <t>P111</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -1401,7 +1355,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1411,7 +1365,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1432,7 +1386,9 @@
       <c r="P14" s="2" t="n">
         <v>44009</v>
       </c>
-      <c r="Q14" t="inlineStr"/>
+      <c r="Q14" s="2" t="n">
+        <v>44501</v>
+      </c>
       <c r="R14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1449,7 +1405,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>O72</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1474,7 +1430,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>L&amp;T</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1515,11 +1471,7 @@
           <t>P058</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -1568,12 +1520,10 @@
       <c r="P16" s="2" t="n">
         <v>43628</v>
       </c>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q16" s="2" t="n">
+        <v>44481</v>
+      </c>
+      <c r="R16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -1587,11 +1537,7 @@
           <t>P127</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -1609,17 +1555,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MAGMA</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>AUTO</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1640,7 +1586,9 @@
       <c r="P17" s="2" t="n">
         <v>44045</v>
       </c>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" s="2" t="n">
+        <v>44501</v>
+      </c>
       <c r="R17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -1707,11 +1655,7 @@
       <c r="Q18" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -1777,11 +1721,7 @@
       <c r="Q19" s="2" t="n">
         <v>44367</v>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -1797,7 +1737,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>O254</t>
+          <t>O233</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1822,12 +1762,12 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MAGMA</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>AUTO</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1849,11 +1789,7 @@
         <v>44013</v>
       </c>
       <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -1904,7 +1840,7 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>30015</v>
@@ -1983,11 +1919,7 @@
       <c r="Q22" s="2" t="n">
         <v>44333</v>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -2003,7 +1935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O50</t>
+          <t>O162</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2028,12 +1960,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>FULLERTON</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>RECOVERY</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -2121,11 +2053,7 @@
       <c r="Q24" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -2189,11 +2117,7 @@
         <v>44287</v>
       </c>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -2259,11 +2183,7 @@
       <c r="Q26" s="2" t="n">
         <v>44398</v>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -2331,11 +2251,7 @@
         <v>44229</v>
       </c>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -2401,11 +2317,7 @@
       <c r="Q28" s="2" t="n">
         <v>44357</v>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -2471,11 +2383,7 @@
       <c r="Q29" s="2" t="n">
         <v>44160</v>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -2489,11 +2397,7 @@
           <t>P117</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>O50</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -2511,17 +2415,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MUTHOOT</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2542,7 +2446,9 @@
       <c r="P30" s="2" t="n">
         <v>44053</v>
       </c>
-      <c r="Q30" t="inlineStr"/>
+      <c r="Q30" s="2" t="n">
+        <v>44501</v>
+      </c>
       <c r="R30" t="inlineStr"/>
     </row>
     <row r="31">
@@ -2557,11 +2463,7 @@
           <t>O247</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -2579,7 +2481,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2610,12 +2512,10 @@
       <c r="P31" s="2" t="n">
         <v>44294</v>
       </c>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q31" s="2" t="n">
+        <v>44509</v>
+      </c>
+      <c r="R31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -2681,11 +2581,7 @@
       <c r="Q32" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -2751,11 +2647,7 @@
       <c r="Q33" s="2" t="n">
         <v>44386</v>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -2821,11 +2713,7 @@
       <c r="Q34" s="2" t="n">
         <v>44388</v>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -2857,17 +2745,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>FULLERTON</t>
+          <t>MAGMA</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>AUTO</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2888,12 +2776,10 @@
       <c r="P35" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q35" s="2" t="n">
+        <v>44550</v>
+      </c>
+      <c r="R35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -2909,7 +2795,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>O72</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2934,7 +2820,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>MUTHOOT</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2961,11 +2847,7 @@
         <v>44295</v>
       </c>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -2981,7 +2863,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>O239</t>
+          <t>O162</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3033,11 +2915,7 @@
         <v>44352</v>
       </c>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -3088,7 +2966,7 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>26000</v>
+        <v>10000</v>
       </c>
       <c r="M38" s="2" t="n">
         <v>35156</v>
@@ -3101,11 +2979,7 @@
         <v>44287</v>
       </c>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -3137,7 +3011,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3168,7 +3042,9 @@
       <c r="P39" s="2" t="n">
         <v>43766</v>
       </c>
-      <c r="Q39" t="inlineStr"/>
+      <c r="Q39" s="2" t="n">
+        <v>43766</v>
+      </c>
       <c r="R39" t="inlineStr"/>
     </row>
     <row r="40">
@@ -3186,12 +3062,12 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MIDDLE MANAGEMENT</t>
+          <t>UPPER MANAGEMENT</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TL</t>
+          <t>MANAGER</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3206,12 +3082,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>SALES</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>SALES</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3220,7 +3096,7 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>20000</v>
+        <v>24000</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>28911</v>
@@ -3233,11 +3109,7 @@
         <v>44229</v>
       </c>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -3305,11 +3177,7 @@
         <v>44298</v>
       </c>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -3375,11 +3243,7 @@
       <c r="Q42" s="2" t="n">
         <v>44333</v>
       </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -3445,11 +3309,7 @@
       <c r="Q43" s="2" t="n">
         <v>44333</v>
       </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -3515,11 +3375,7 @@
       <c r="Q44" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -3585,11 +3441,7 @@
       <c r="Q45" s="2" t="n">
         <v>44170</v>
       </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -3655,11 +3507,7 @@
       <c r="Q46" s="2" t="n">
         <v>44333</v>
       </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -3673,11 +3521,7 @@
           <t>P119</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -3695,17 +3539,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MUTHOOT</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3726,7 +3570,9 @@
       <c r="P47" s="2" t="n">
         <v>44048</v>
       </c>
-      <c r="Q47" t="inlineStr"/>
+      <c r="Q47" s="2" t="n">
+        <v>44501</v>
+      </c>
       <c r="R47" t="inlineStr"/>
     </row>
     <row r="48">
@@ -3741,11 +3587,7 @@
           <t>P248</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -3763,7 +3605,7 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
@@ -3794,12 +3636,10 @@
       <c r="P48" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q48" s="2" t="n">
+        <v>44440</v>
+      </c>
+      <c r="R48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -3865,11 +3705,7 @@
       <c r="Q49" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -3885,7 +3721,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>O50</t>
+          <t>O233</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3910,12 +3746,12 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MAGMA</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>AUTO</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3951,11 +3787,7 @@
           <t>P126</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -3973,7 +3805,7 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -3983,7 +3815,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -4004,7 +3836,9 @@
       <c r="P51" s="2" t="n">
         <v>44047</v>
       </c>
-      <c r="Q51" t="inlineStr"/>
+      <c r="Q51" s="2" t="n">
+        <v>44501</v>
+      </c>
       <c r="R51" t="inlineStr"/>
     </row>
     <row r="52">
@@ -4021,7 +3855,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>O72</t>
+          <t>O233</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -4046,12 +3880,12 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MAGMA</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>AUTO</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4110,12 +3944,12 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>FULLERTON</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4137,13 +3971,9 @@
         <v>44287</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>44333</v>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+        <v>44562</v>
+      </c>
+      <c r="R53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -4209,11 +4039,7 @@
       <c r="Q54" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -4281,11 +4107,7 @@
         <v>44229</v>
       </c>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -4299,11 +4121,7 @@
           <t>P064</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>O50</t>
-        </is>
-      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -4321,7 +4139,7 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4352,7 +4170,9 @@
       <c r="P56" s="2" t="n">
         <v>43732</v>
       </c>
-      <c r="Q56" t="inlineStr"/>
+      <c r="Q56" s="2" t="n">
+        <v>44481</v>
+      </c>
       <c r="R56" t="inlineStr"/>
     </row>
     <row r="57">
@@ -4417,11 +4237,7 @@
         <v>44317</v>
       </c>
       <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -4487,11 +4303,7 @@
       <c r="Q58" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -4557,11 +4369,7 @@
       <c r="Q59" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -4629,11 +4437,7 @@
         <v>44229</v>
       </c>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -4697,11 +4501,7 @@
         <v>44287</v>
       </c>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -4767,11 +4567,7 @@
       <c r="Q62" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -4837,11 +4633,7 @@
       <c r="Q63" s="2" t="n">
         <v>44333</v>
       </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -4855,11 +4647,7 @@
           <t>O197</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -4877,7 +4665,7 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -4908,12 +4696,10 @@
       <c r="P64" s="2" t="n">
         <v>44229</v>
       </c>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q64" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="R64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -4981,11 +4767,7 @@
         <v>44321</v>
       </c>
       <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -5051,11 +4833,7 @@
       <c r="Q66" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -5071,7 +4849,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>O239</t>
+          <t>O162</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5123,11 +4901,7 @@
         <v>44354</v>
       </c>
       <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -5193,11 +4967,7 @@
       <c r="Q68" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -5252,7 +5022,7 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>12000</v>
+        <v>13500</v>
       </c>
       <c r="M69" s="2" t="n">
         <v>37164</v>
@@ -5265,11 +5035,7 @@
         <v>44317</v>
       </c>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -5283,11 +5049,7 @@
           <t>P256</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>O239</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -5305,7 +5067,7 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
@@ -5336,12 +5098,10 @@
       <c r="P70" s="2" t="n">
         <v>44321</v>
       </c>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q70" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="R70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -5357,7 +5117,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>O239</t>
+          <t>O162</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5409,11 +5169,7 @@
         <v>44291</v>
       </c>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -5481,11 +5237,7 @@
         <v>44287</v>
       </c>
       <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -5553,11 +5305,7 @@
         <v>44355</v>
       </c>
       <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -5623,11 +5371,7 @@
       <c r="Q74" s="2" t="n">
         <v>44428</v>
       </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -5693,11 +5437,7 @@
       <c r="Q75" s="2" t="n">
         <v>44426</v>
       </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -5763,11 +5503,7 @@
       <c r="Q76" s="2" t="n">
         <v>44442</v>
       </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -5822,7 +5558,7 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M77" s="2" t="n">
         <v>33635</v>
@@ -5835,11 +5571,7 @@
         <v>44355</v>
       </c>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -5853,11 +5585,7 @@
           <t>O264</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -5875,7 +5603,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -5906,12 +5634,10 @@
       <c r="P78" s="2" t="n">
         <v>44355</v>
       </c>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q78" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="R78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -5925,11 +5651,7 @@
           <t>O266</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -5978,12 +5700,10 @@
       <c r="P79" s="2" t="n">
         <v>44355</v>
       </c>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q79" s="2" t="n">
+        <v>44355</v>
+      </c>
+      <c r="R79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -5997,11 +5717,7 @@
           <t>O269</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -6019,7 +5735,7 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
@@ -6050,12 +5766,10 @@
       <c r="P80" s="2" t="n">
         <v>44356</v>
       </c>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q80" s="2" t="n">
+        <v>44530</v>
+      </c>
+      <c r="R80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -6069,11 +5783,7 @@
           <t>O270</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -6091,7 +5801,7 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
@@ -6122,12 +5832,10 @@
       <c r="P81" s="2" t="n">
         <v>44356</v>
       </c>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q81" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="R81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -6193,11 +5901,7 @@
       <c r="Q82" s="2" t="n">
         <v>44379</v>
       </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -6211,11 +5915,7 @@
           <t>P261</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -6233,7 +5933,7 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
@@ -6243,7 +5943,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6264,7 +5964,9 @@
       <c r="P83" s="2" t="n">
         <v>44360</v>
       </c>
-      <c r="Q83" t="inlineStr"/>
+      <c r="Q83" s="2" t="n">
+        <v>44501</v>
+      </c>
       <c r="R83" t="inlineStr"/>
     </row>
     <row r="84">
@@ -6331,11 +6033,7 @@
       <c r="Q84" s="2" t="n">
         <v>44447</v>
       </c>
-      <c r="R84" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -6349,11 +6047,7 @@
           <t>O271</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -6371,7 +6065,7 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
@@ -6402,12 +6096,10 @@
       <c r="P85" s="2" t="n">
         <v>44363</v>
       </c>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q85" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="R85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -6473,11 +6165,7 @@
       <c r="Q86" s="2" t="n">
         <v>44430</v>
       </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -6491,11 +6179,7 @@
           <t>O274</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -6513,17 +6197,17 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>HERO</t>
+          <t>MAGMA</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>AUTO</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6544,12 +6228,10 @@
       <c r="P87" s="2" t="n">
         <v>44365</v>
       </c>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q87" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="R87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -6613,11 +6295,7 @@
         <v>44348</v>
       </c>
       <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -6683,11 +6361,7 @@
       <c r="Q89" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -6701,11 +6375,7 @@
           <t>P264</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
+      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -6723,7 +6393,7 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -6754,7 +6424,9 @@
       <c r="P90" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="Q90" t="inlineStr"/>
+      <c r="Q90" s="2" t="n">
+        <v>44470</v>
+      </c>
       <c r="R90" t="inlineStr"/>
     </row>
     <row r="91">
@@ -6821,11 +6493,7 @@
       <c r="Q91" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -6891,11 +6559,7 @@
       <c r="Q92" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -6961,11 +6625,7 @@
       <c r="Q93" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -6979,11 +6639,7 @@
           <t>P269</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>O50</t>
-        </is>
-      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -7001,7 +6657,7 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
@@ -7011,7 +6667,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7032,7 +6688,9 @@
       <c r="P94" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="Q94" t="inlineStr"/>
+      <c r="Q94" s="2" t="n">
+        <v>44501</v>
+      </c>
       <c r="R94" t="inlineStr"/>
     </row>
     <row r="95">
@@ -7101,11 +6759,7 @@
         <v>44378</v>
       </c>
       <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -7142,12 +6796,12 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>OPS</t>
+          <t>SLICE</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>ADMIN</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7169,11 +6823,7 @@
         <v>44378</v>
       </c>
       <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -7239,11 +6889,7 @@
       <c r="Q97" s="2" t="n">
         <v>44446</v>
       </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -7257,11 +6903,7 @@
           <t>O283</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
+      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -7279,7 +6921,7 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
@@ -7310,12 +6952,10 @@
       <c r="P98" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q98" s="2" t="n">
+        <v>44492</v>
+      </c>
+      <c r="R98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -7383,11 +7023,7 @@
         <v>44375</v>
       </c>
       <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -7455,11 +7091,7 @@
         <v>44369</v>
       </c>
       <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -7473,11 +7105,7 @@
           <t>O272</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -7495,7 +7123,7 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
@@ -7526,12 +7154,10 @@
       <c r="P101" s="2" t="n">
         <v>44369</v>
       </c>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q101" s="2" t="n">
+        <v>44525</v>
+      </c>
+      <c r="R101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -7599,11 +7225,7 @@
         <v>44369</v>
       </c>
       <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -7617,11 +7239,7 @@
           <t>P270</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>O50</t>
-        </is>
-      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -7639,17 +7257,17 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MUTHOOT</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -7670,7 +7288,9 @@
       <c r="P103" s="2" t="n">
         <v>44390</v>
       </c>
-      <c r="Q103" t="inlineStr"/>
+      <c r="Q103" s="2" t="n">
+        <v>44511</v>
+      </c>
       <c r="R103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -7685,11 +7305,7 @@
           <t>O284</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -7707,7 +7323,7 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
@@ -7738,12 +7354,10 @@
       <c r="P104" s="2" t="n">
         <v>44411</v>
       </c>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q104" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="R104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -7757,11 +7371,7 @@
           <t>O285</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -7784,12 +7394,12 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>MUTHOOT</t>
+          <t>SLICE</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>CC</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -7811,11 +7421,7 @@
         <v>44412</v>
       </c>
       <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -7829,11 +7435,7 @@
           <t>O286</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -7882,12 +7484,10 @@
       <c r="P106" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q106" s="2" t="n">
+        <v>44417</v>
+      </c>
+      <c r="R106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -7901,11 +7501,7 @@
           <t>O287</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -7923,17 +7519,17 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>HERO</t>
+          <t>MAGMA</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>AUTO</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
@@ -7954,12 +7550,10 @@
       <c r="P107" s="2" t="n">
         <v>44417</v>
       </c>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q107" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="R107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -7975,7 +7569,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>O239</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -8027,11 +7621,7 @@
         <v>44409</v>
       </c>
       <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -8097,11 +7687,7 @@
       <c r="Q109" s="2" t="n">
         <v>44432</v>
       </c>
-      <c r="R109" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -8169,11 +7755,7 @@
         <v>44418</v>
       </c>
       <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -8187,11 +7769,7 @@
           <t>P274</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -8243,11 +7821,7 @@
       <c r="Q111" s="2" t="n">
         <v>44450</v>
       </c>
-      <c r="R111" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -8261,11 +7835,7 @@
           <t>O194</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -8314,12 +7884,10 @@
       <c r="P112" s="2" t="n">
         <v>44379</v>
       </c>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q112" s="2" t="n">
+        <v>44379</v>
+      </c>
+      <c r="R112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -8385,11 +7953,7 @@
       <c r="Q113" s="2" t="n">
         <v>44430</v>
       </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -8403,11 +7967,7 @@
           <t>O288</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
           <t>MIDDLE MANAGEMENT</t>
@@ -8425,12 +7985,12 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>HERO</t>
+          <t>FULLERTON</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -8456,12 +8016,10 @@
       <c r="P114" s="2" t="n">
         <v>44421</v>
       </c>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q114" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="R114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -8475,11 +8033,7 @@
           <t>O290</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -8497,17 +8051,17 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>BAJAJ</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>CD</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -8528,12 +8082,10 @@
       <c r="P115" s="2" t="n">
         <v>44422</v>
       </c>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q115" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="R115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -8601,11 +8153,7 @@
         <v>44428</v>
       </c>
       <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -8673,11 +8221,7 @@
         <v>44429</v>
       </c>
       <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -8691,11 +8235,7 @@
           <t>P276</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -8713,7 +8253,7 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I118" t="inlineStr">
@@ -8744,12 +8284,10 @@
       <c r="P118" s="2" t="n">
         <v>44429</v>
       </c>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q118" s="2" t="n">
+        <v>44464</v>
+      </c>
+      <c r="R118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -8763,11 +8301,7 @@
           <t>P277</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -8816,12 +8350,10 @@
       <c r="P119" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q119" s="2" t="n">
+        <v>44481</v>
+      </c>
+      <c r="R119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -8835,11 +8367,7 @@
           <t>P278</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -8891,11 +8419,7 @@
       <c r="Q120" s="2" t="n">
         <v>44448</v>
       </c>
-      <c r="R120" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -8909,11 +8433,7 @@
           <t>P279</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -8931,7 +8451,7 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I121" t="inlineStr">
@@ -8962,12 +8482,10 @@
       <c r="P121" s="2" t="n">
         <v>44442</v>
       </c>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q121" s="2" t="n">
+        <v>44492</v>
+      </c>
+      <c r="R121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -8981,11 +8499,7 @@
           <t>P280</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -9003,7 +8517,7 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -9034,12 +8548,10 @@
       <c r="P122" s="2" t="n">
         <v>44442</v>
       </c>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q122" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="R122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -9071,17 +8583,17 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>IDFC</t>
+          <t>MUTHOOT</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9102,7 +8614,9 @@
       <c r="P123" s="2" t="n">
         <v>43669</v>
       </c>
-      <c r="Q123" t="inlineStr"/>
+      <c r="Q123" s="2" t="n">
+        <v>44501</v>
+      </c>
       <c r="R123" t="inlineStr"/>
     </row>
     <row r="124">
@@ -9117,11 +8631,7 @@
           <t>O293</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -9139,17 +8649,17 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>HERO</t>
+          <t>BAJAJ</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>CD</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9170,12 +8680,10 @@
       <c r="P124" s="2" t="n">
         <v>44442</v>
       </c>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q124" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="R124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
@@ -9189,11 +8697,7 @@
           <t>O294</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -9242,12 +8746,10 @@
       <c r="P125" s="2" t="n">
         <v>44442</v>
       </c>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q125" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="R125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -9261,11 +8763,7 @@
           <t>O295</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -9314,12 +8812,10 @@
       <c r="P126" s="2" t="n">
         <v>44442</v>
       </c>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q126" s="2" t="n">
+        <v>44442</v>
+      </c>
+      <c r="R126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -9333,11 +8829,7 @@
           <t>O296</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -9360,12 +8852,12 @@
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>HERO</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9386,12 +8878,10 @@
       <c r="P127" s="2" t="n">
         <v>44442</v>
       </c>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q127" s="2" t="n">
+        <v>44540</v>
+      </c>
+      <c r="R127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -9407,7 +8897,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>O281</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -9427,17 +8917,17 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>HERO</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9459,11 +8949,7 @@
         <v>44442</v>
       </c>
       <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -9477,11 +8963,7 @@
           <t>O298</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>O72</t>
-        </is>
-      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -9499,7 +8981,7 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
@@ -9530,12 +9012,10 @@
       <c r="P129" s="2" t="n">
         <v>44445</v>
       </c>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q129" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="R129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -9551,7 +9031,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>O281</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -9576,12 +9056,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>HERO</t>
+          <t>BAJAJ</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -9603,11 +9083,7 @@
         <v>44445</v>
       </c>
       <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -9623,7 +9099,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>O281</t>
+          <t>O254</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -9648,12 +9124,12 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>HERO</t>
+          <t>BAJAJ</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="K131" t="inlineStr">
@@ -9675,11 +9151,7 @@
         <v>44445</v>
       </c>
       <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -9693,11 +9165,7 @@
           <t>O301</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -9746,12 +9214,10 @@
       <c r="P132" s="2" t="n">
         <v>44446</v>
       </c>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q132" s="2" t="n">
+        <v>44446</v>
+      </c>
+      <c r="R132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -9765,11 +9231,7 @@
           <t>O302</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -9787,7 +9249,7 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
@@ -9818,12 +9280,10 @@
       <c r="P133" s="2" t="n">
         <v>44447</v>
       </c>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q133" s="2" t="n">
+        <v>44501</v>
+      </c>
+      <c r="R133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
@@ -9837,11 +9297,7 @@
           <t>O303</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -9890,12 +9346,10 @@
       <c r="P134" s="2" t="n">
         <v>44452</v>
       </c>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q134" s="2" t="n">
+        <v>44452</v>
+      </c>
+      <c r="R134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -9909,11 +9363,7 @@
           <t>O304</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>O281</t>
-        </is>
-      </c>
+      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -9931,17 +9381,17 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>HERO</t>
+          <t>IDFC</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>RECOVERY</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="K135" t="inlineStr">
@@ -9962,12 +9412,10 @@
       <c r="P135" s="2" t="n">
         <v>44453</v>
       </c>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q135" s="2" t="n">
+        <v>44510</v>
+      </c>
+      <c r="R135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -9981,11 +9429,7 @@
           <t>P281</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -10003,7 +9447,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -10034,12 +9478,10 @@
       <c r="P136" s="2" t="n">
         <v>44453</v>
       </c>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q136" s="2" t="n">
+        <v>44469</v>
+      </c>
+      <c r="R136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -10053,11 +9495,7 @@
           <t>P282</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -10106,18 +9544,16 @@
       <c r="P137" s="2" t="n">
         <v>44453</v>
       </c>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q137" s="2" t="n">
+        <v>44481</v>
+      </c>
+      <c r="R137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SANJAY KUMAR</t>
+          <t>SANJAY</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -10179,11 +9615,7 @@
         <v>44453</v>
       </c>
       <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -10197,11 +9629,7 @@
           <t>P284</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>O254</t>
-        </is>
-      </c>
+      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
           <t>LOWER MANAGEMENT</t>
@@ -10219,7 +9647,7 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
@@ -10250,12 +9678,10 @@
       <c r="P139" s="2" t="n">
         <v>44466</v>
       </c>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="Q139" s="2" t="n">
+        <v>44531</v>
+      </c>
+      <c r="R139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -10323,11 +9749,7 @@
         <v>44473</v>
       </c>
       <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -10395,11 +9817,7 @@
         <v>44473</v>
       </c>
       <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>OK</t>
-        </is>
-      </c>
+      <c r="R141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -10431,7 +9849,7 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
@@ -10462,8 +9880,1160 @@
       <c r="P142" s="2" t="n">
         <v>44476</v>
       </c>
-      <c r="Q142" t="inlineStr"/>
+      <c r="Q142" s="2" t="n">
+        <v>44501</v>
+      </c>
       <c r="R142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr"/>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>JITENDER</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>P288</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" s="2" t="n">
+        <v>30880</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="n">
+        <v>9540919407</v>
+      </c>
+      <c r="P143" s="2" t="n">
+        <v>44489</v>
+      </c>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr"/>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>ADARSH RAJAN SINGH</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>O305</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>BAJAJ</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M144" s="2" t="n">
+        <v>37774</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="n">
+        <v>7765845954</v>
+      </c>
+      <c r="P144" s="2" t="n">
+        <v>44506</v>
+      </c>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr"/>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>PANKAJ RAI</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>P289</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" s="2" t="n">
+        <v>30950</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="n">
+        <v>9953399100</v>
+      </c>
+      <c r="P145" s="2" t="n">
+        <v>44506</v>
+      </c>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>LOPAMUDRA</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>O306</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>BAJAJ</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M146" s="2" t="n">
+        <v>36765</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="n">
+        <v>8448904479</v>
+      </c>
+      <c r="P146" s="2" t="n">
+        <v>44513</v>
+      </c>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr"/>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>NANDAN PRASAD</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>O307</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M147" s="2" t="n">
+        <v>36651</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="n">
+        <v>8448657541</v>
+      </c>
+      <c r="P147" s="2" t="n">
+        <v>44513</v>
+      </c>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr"/>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>ASHISH KUMAR PANDEY</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>P290</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" s="2" t="n">
+        <v>31927</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="n">
+        <v>9717898345</v>
+      </c>
+      <c r="P148" s="2" t="n">
+        <v>44508</v>
+      </c>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr"/>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>SAHIL CHOPRA</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>O308</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>SLICE</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>CC</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M149" s="2" t="n">
+        <v>37628</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="n">
+        <v>7290996688</v>
+      </c>
+      <c r="P149" s="2" t="n">
+        <v>44532</v>
+      </c>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>PREETI VERMA</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>O309</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M150" s="2" t="n">
+        <v>35507</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="n">
+        <v>8851962600</v>
+      </c>
+      <c r="P150" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr"/>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>JITENDRA TYAGI</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>P292</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>INACTIVE</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" s="2" t="n">
+        <v>28863</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="n">
+        <v>8287741812</v>
+      </c>
+      <c r="P151" s="2" t="n">
+        <v>44533</v>
+      </c>
+      <c r="Q151" s="2" t="n">
+        <v>44537</v>
+      </c>
+      <c r="R151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>GITIKA</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>O310</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>O315</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>HERO</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M152" s="2" t="n">
+        <v>36562</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="n">
+        <v>9315977737</v>
+      </c>
+      <c r="P152" s="2" t="n">
+        <v>44566</v>
+      </c>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr"/>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>MD SANAYOULLAH</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>O311</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>O315</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>HERO</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>13000</v>
+      </c>
+      <c r="M153" s="2" t="n">
+        <v>36996</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="n">
+        <v>9891489598</v>
+      </c>
+      <c r="P153" s="2" t="n">
+        <v>44567</v>
+      </c>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr"/>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>MD ZAID</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>O312</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>O315</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>HERO</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M154" s="2" t="n">
+        <v>36712</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="n">
+        <v>9211098653</v>
+      </c>
+      <c r="P154" s="2" t="n">
+        <v>44567</v>
+      </c>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr"/>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>BINDRA</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>O313</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>O233</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>MAGMA</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>AUTO</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>10000</v>
+      </c>
+      <c r="M155" s="2" t="n">
+        <v>35509</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="n">
+        <v>9599335006</v>
+      </c>
+      <c r="P155" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr"/>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>NEHA TANWAR</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>O314</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>TC</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M156" s="2" t="n">
+        <v>34232</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="n">
+        <v>8595111989</v>
+      </c>
+      <c r="P156" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr"/>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>JASJEET SINGH UBHI</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>O315</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>O315</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>MIDDLE MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>TL</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>OFFICE</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>HERO</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>RECOVERY</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>FIXED</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>18000</v>
+      </c>
+      <c r="M157" s="2" t="n">
+        <v>31781</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="n">
+        <v>9888288013</v>
+      </c>
+      <c r="P157" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr"/>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>SANJAY KUMAR</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>P293</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" s="2" t="n">
+        <v>30930</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="n">
+        <v>9910145564</v>
+      </c>
+      <c r="P158" s="2" t="n">
+        <v>44568</v>
+      </c>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr"/>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>NARENDER SINGH</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>P294</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>O254</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>LOWER MANAGEMENT</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>FOS</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>FIELD</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>ACTIVE</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>IDFC</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>TW</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>INCENTIVE</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" s="2" t="n">
+        <v>31855</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="n">
+        <v>8287961481</v>
+      </c>
+      <c r="P159" s="2" t="n">
+        <v>44569</v>
+      </c>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/media/Employees/Employee_Database.xlsx
+++ b/media/Employees/Employee_Database.xlsx
@@ -2745,17 +2745,17 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>INACTIVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>MAGMA</t>
+          <t>FULLERTON</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>AUTO</t>
+          <t>RECOVERY</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">

--- a/media/Employees/Employee_Database.xlsx
+++ b/media/Employees/Employee_Database.xlsx
@@ -2745,7 +2745,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INACTIVE</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
